--- a/trend_results/Rivers/MakotukuatSH49A_e6b6f648fa.xlsx
+++ b/trend_results/Rivers/MakotukuatSH49A_e6b6f648fa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.865596628226167</v>
+        <v>0.134403371773833</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.882544591715139</v>
+        <v>0.117455408284861</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.56376774448557</v>
+        <v>0.43623225551443</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.489207259621559</v>
+        <v>0.510792740378441</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -3098,11 +3098,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -3113,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.768783636774762</v>
+        <v>0.0006216807620397</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.0063694267515923</v>
       </c>
       <c r="H30" t="n">
+        <v>0.700636942675159</v>
+      </c>
+      <c r="I30" t="n">
         <v>1</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
       <c r="J30" t="n">
-        <v>0.68</v>
+        <v>4</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0137113039545908</v>
+        <v>0.270878883205207</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0417002456289359</v>
+        <v>0.114654703686147</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0540750320768102</v>
+        <v>0.474919189469539</v>
       </c>
       <c r="N30" t="n">
-        <v>2.01636822861629</v>
+        <v>6.77197208013018</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3175,7 +3175,11 @@
           <t>Whau_3b</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3185,7 +3189,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3212,19 +3216,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>128.8</v>
+        <v>0.68</v>
       </c>
       <c r="K31" t="n">
-        <v>3.15847490873187</v>
+        <v>0.0137113039545908</v>
       </c>
       <c r="L31" t="n">
-        <v>-5.34587248128729</v>
+        <v>-0.0417002456289359</v>
       </c>
       <c r="M31" t="n">
-        <v>3.7166271014695</v>
+        <v>0.0540750320768102</v>
       </c>
       <c r="N31" t="n">
-        <v>2.45223207199679</v>
+        <v>2.01636822861629</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3272,7 +3276,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3287,7 +3291,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.95679463351315</v>
+        <v>0.768783636774762</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3299,19 +3303,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>7.77</v>
+        <v>128.8</v>
       </c>
       <c r="K32" t="n">
-        <v>0.375997382631695</v>
+        <v>3.15847490873187</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.0673644230771064</v>
+        <v>-5.34587248128729</v>
       </c>
       <c r="M32" t="n">
-        <v>1.06236694098502</v>
+        <v>3.7166271014695</v>
       </c>
       <c r="N32" t="n">
-        <v>4.83909115356107</v>
+        <v>2.45223207199679</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3320,7 +3324,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3359,11 +3363,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -3374,7 +3378,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.8584345646688269</v>
+        <v>0.95679463351315</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3386,19 +3390,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.6525</v>
+        <v>7.77</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0088821174377224</v>
+        <v>0.375997382631695</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0055475339457264</v>
+        <v>-0.0673644230771064</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0207316249515239</v>
+        <v>1.06236694098502</v>
       </c>
       <c r="N33" t="n">
-        <v>1.36124405175822</v>
+        <v>4.83909115356107</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3407,7 +3411,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3446,7 +3450,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3461,31 +3465,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.9560192628459599</v>
+        <v>0.8584345646688269</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>124</v>
+        <v>0.6525</v>
       </c>
       <c r="K34" t="n">
-        <v>1.20544554455446</v>
+        <v>0.0088821174377224</v>
       </c>
       <c r="L34" t="n">
-        <v>0.0689622715185895</v>
+        <v>-0.0055475339457264</v>
       </c>
       <c r="M34" t="n">
-        <v>2.20980811897005</v>
+        <v>0.0207316249515239</v>
       </c>
       <c r="N34" t="n">
-        <v>0.972133503672948</v>
+        <v>1.36124405175822</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3494,7 +3498,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3533,7 +3537,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3548,31 +3552,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.9899776656886859</v>
+        <v>0.9560192628459599</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>7.03</v>
+        <v>124</v>
       </c>
       <c r="K35" t="n">
-        <v>0.330193579766537</v>
+        <v>1.20544554455446</v>
       </c>
       <c r="L35" t="n">
-        <v>0.07088707038834539</v>
+        <v>0.0689622715185895</v>
       </c>
       <c r="M35" t="n">
-        <v>0.452916379919444</v>
+        <v>2.20980811897005</v>
       </c>
       <c r="N35" t="n">
-        <v>4.69692147605316</v>
+        <v>0.972133503672948</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3611,6 +3615,93 @@
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Makotuku at SH49A</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>10</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.9899776656886859</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.330193579766537</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.07088707038834539</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.452916379919444</v>
+      </c>
+      <c r="N36" t="n">
+        <v>4.69692147605316</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1800243</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5639420</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Whau_3b</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/MakotukuatSH49A_e6b6f648fa.xlsx
+++ b/trend_results/Rivers/MakotukuatSH49A_e6b6f648fa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W36"/>
+  <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.998871758827614</v>
+        <v>0.971316085122176</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0178571428571429</v>
+        <v>0.0175438596491228</v>
       </c>
       <c r="H2" t="n">
-        <v>0.785714285714286</v>
+        <v>0.842105263157895</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>4.175</v>
+        <v>2.7</v>
       </c>
       <c r="K2" t="n">
-        <v>-1.1558788567202</v>
+        <v>-0.423334708236142</v>
       </c>
       <c r="L2" t="n">
-        <v>-2.02030065057804</v>
+        <v>-0.939628282177613</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.536352797418815</v>
+        <v>-0.0585061132643574</v>
       </c>
       <c r="N2" t="n">
-        <v>-27.6857211190468</v>
+        <v>-15.6790632680053</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.310297466903651</v>
+        <v>0.0047017687712039</v>
       </c>
       <c r="G3" t="n">
-        <v>0.024390243902439</v>
+        <v>0.03125</v>
       </c>
       <c r="H3" t="n">
-        <v>0.634146341463415</v>
+        <v>0.78125</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.0511751373626373</v>
+        <v>-0.543526785714286</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.257241770092541</v>
+        <v>-0.854230349102579</v>
       </c>
       <c r="M3" t="n">
-        <v>0.128105380876973</v>
+        <v>-0.219256593843615</v>
       </c>
       <c r="N3" t="n">
-        <v>-1.55076173826174</v>
+        <v>-16.2246801705757</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.134403371773833</v>
+        <v>0.007491446845039</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.931034482758621</v>
+        <v>0.862068965517241</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -770,16 +770,16 @@
         <v>10.955</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.07951741654571851</v>
+        <v>-0.0993458625488409</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.173181735055858</v>
+        <v>-0.203744897959183</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0305913852544737</v>
+        <v>-0.0433963123699957</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.725855011827645</v>
+        <v>-0.906854062517945</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -842,17 +842,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.0141681359396397</v>
+        <v>0.323709039892631</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.46551724137931</v>
+        <v>0.431034482758621</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>0.012</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0012349957734573</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0002745184307602</v>
+        <v>-0.0007794329868205</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0024219905603288</v>
+        <v>0.0012423469387755</v>
       </c>
       <c r="N5" t="n">
-        <v>10.2916314454776</v>
+        <v>0</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -929,7 +929,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.908163119254447</v>
+        <v>0.6758666899971369</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.649122807017544</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="K6" t="n">
-        <v>-6.97917553757718</v>
+        <v>-2.1268961301856</v>
       </c>
       <c r="L6" t="n">
-        <v>-15.562030075188</v>
+        <v>-7.10712310921132</v>
       </c>
       <c r="M6" t="n">
-        <v>1.42931376722702</v>
+        <v>4.7476057828174</v>
       </c>
       <c r="N6" t="n">
-        <v>-11.2567347380277</v>
+        <v>-4.09018486574155</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1028,13 +1028,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.174614363277126</v>
+        <v>0.220729996238753</v>
       </c>
       <c r="G7" t="n">
-        <v>0.875</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="H7" t="n">
-        <v>0.125</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.485541267035729</v>
+        <v>0.999788040903288</v>
       </c>
       <c r="G8" t="n">
-        <v>0.482758620689655</v>
+        <v>0.517241379310345</v>
       </c>
       <c r="H8" t="n">
         <v>0.120689655172414</v>
@@ -1131,13 +1131,13 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>-0.0003922667324011</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1216,25 +1216,25 @@
         <v>0.0172413793103448</v>
       </c>
       <c r="H9" t="n">
-        <v>0.931034482758621</v>
+        <v>0.9655172413793101</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1805</v>
+        <v>0.1925</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0113017386566277</v>
+        <v>0.0090105018336926</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.009482450411172801</v>
+        <v>-0.0121915851531901</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0271307444645038</v>
+        <v>0.0217633393797888</v>
       </c>
       <c r="N9" t="n">
-        <v>6.26135105630343</v>
+        <v>4.68078017334682</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1301,31 +1301,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.117455408284861</v>
+        <v>0.016702504748759</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.741379310344828</v>
+        <v>0.758620689655172</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>7.76</v>
+        <v>7.715</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0301030219780218</v>
+        <v>-0.0573964285714287</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.07681745987469819</v>
+        <v>-0.100990783410138</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0119987870846862</v>
+        <v>-0.0144685312101585</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.387925540953889</v>
+        <v>-0.7439588926951231</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.306715686477583</v>
+        <v>0.414296537609323</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.864406779661017</v>
+        <v>0.915254237288136</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.194</v>
+        <v>0.201</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0060057717564853</v>
+        <v>0.0012556747230042</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.010403748269451</v>
+        <v>-0.0152771862334077</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0255193228737335</v>
+        <v>0.0211259349555625</v>
       </c>
       <c r="N11" t="n">
-        <v>3.09575863736357</v>
+        <v>0.624713792539436</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1464,46 +1464,46 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.611820942597319</v>
+        <v>0.183082903070796</v>
       </c>
       <c r="G12" t="n">
-        <v>0.655172413793103</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.137931034482759</v>
+        <v>0.5</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5</v>
+        <v>0.26</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.008361950549450501</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>-0.004818174621914</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.0196900269541779</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>3.21613482671175</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1555,14 +1555,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.225705256829658</v>
+        <v>0.0044469555000864</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.482758620689655</v>
+        <v>0.413793103448276</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.25</v>
+        <v>0.015</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0070896537672853</v>
+        <v>0.0015575692963752</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.006686196565095</v>
+        <v>0.0005245927399218</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0198627463459418</v>
+        <v>0.0025077430571443</v>
       </c>
       <c r="N13" t="n">
-        <v>2.83586150691414</v>
+        <v>10.3837953091684</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1646,14 +1646,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>5</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.000211578200176</v>
+        <v>0.831062575630752</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.413793103448276</v>
+        <v>0.724137931034483</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.015</v>
+        <v>0.495</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0023480357142857</v>
+        <v>-0.0200686813186813</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0012986324033242</v>
+        <v>-0.0678494491777923</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0032985204898051</v>
+        <v>0.034251541654471</v>
       </c>
       <c r="N14" t="n">
-        <v>15.6535714285714</v>
+        <v>-4.05427905427905</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1737,11 +1737,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.443965098038549</v>
+        <v>0.9999999885944</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.0087719298245614</v>
       </c>
       <c r="H15" t="n">
-        <v>0.724137931034483</v>
+        <v>0.710526315789474</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>0.52</v>
+        <v>7</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0048090849242923</v>
+        <v>-1.44139700078927</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.0384168716431433</v>
+        <v>-1.87839341150346</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0538135092888</v>
+        <v>-1.04332778462168</v>
       </c>
       <c r="N15" t="n">
-        <v>0.924824023902366</v>
+        <v>-20.5913857255609</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.998089583661204</v>
+        <v>0.27035733691925</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0087719298245614</v>
+        <v>0.0823529411764706</v>
       </c>
       <c r="H16" t="n">
-        <v>0.701754385964912</v>
+        <v>0.529411764705882</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.670183486238532</v>
+        <v>0.0271073973120311</v>
       </c>
       <c r="L16" t="n">
-        <v>-1.24710936917464</v>
+        <v>-0.0618791424006449</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.238315108828466</v>
+        <v>0.119718599174301</v>
       </c>
       <c r="N16" t="n">
-        <v>-9.5740498034076</v>
+        <v>0.84710616600097</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1919,14 +1919,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.937029092720797</v>
+        <v>0.287177277331182</v>
       </c>
       <c r="G17" t="n">
-        <v>0.074468085106383</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.5</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>3.2</v>
+        <v>10.87</v>
       </c>
       <c r="K17" t="n">
-        <v>0.115439317319848</v>
+        <v>-0.0083352350524872</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0395923960918582</v>
+        <v>-0.0430695608826105</v>
       </c>
       <c r="M17" t="n">
-        <v>0.190897212543554</v>
+        <v>0.0180774189220922</v>
       </c>
       <c r="N17" t="n">
-        <v>3.60747866624526</v>
+        <v>-0.07668109523907329</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2025,31 +2025,31 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.43623225551443</v>
+        <v>0.817190987747928</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.846153846153846</v>
+        <v>0.254237288135593</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>10.99</v>
+        <v>0.0125</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.0050171703296702</v>
+        <v>-0.0002496582365003</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0369792671154374</v>
+        <v>-0.0005689661746149</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0226595901970937</v>
+        <v>0.0001667047010497</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.0456521413072814</v>
+        <v>-1.99726589200273</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2112,35 +2112,35 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.40548598980379</v>
+        <v>0.76022286028264</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.0086206896551724</v>
       </c>
       <c r="H19" t="n">
-        <v>0.271186440677966</v>
+        <v>0.491379310344828</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.014</v>
+        <v>54</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-0.999111218485084</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.0003333539078146</v>
+        <v>-3.00158262807228</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0004013046977869</v>
+        <v>1.00161487512711</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-1.85020596015756</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2192,46 +2192,46 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.751772481913066</v>
+        <v>0.117672560487931</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0086206896551724</v>
+        <v>0.904347826086957</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5</v>
+        <v>0.147826086956522</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J20" t="n">
-        <v>56</v>
+        <v>0.005</v>
       </c>
       <c r="K20" t="n">
-        <v>-1.41912719867991</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>-3.43519521140383</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1.07846244744762</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>-2.53415571192842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2283,40 +2283,40 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.08971256659846349</v>
+        <v>0.999757540022156</v>
       </c>
       <c r="G21" t="n">
-        <v>0.921052631578947</v>
+        <v>0.440677966101695</v>
       </c>
       <c r="H21" t="n">
-        <v>0.131578947368421</v>
+        <v>0.11864406779661</v>
       </c>
       <c r="I21" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>-0.00020040406756</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2374,7 +2374,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2385,35 +2385,35 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.99829509276729</v>
+        <v>0.5</v>
       </c>
       <c r="G22" t="n">
-        <v>0.355932203389831</v>
+        <v>0.008474576271186401</v>
       </c>
       <c r="H22" t="n">
-        <v>0.127118644067797</v>
+        <v>0.898305084745763</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0.002</v>
+        <v>0.1925</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>-0.0001120780770542</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0001999178981937</v>
+        <v>-0.0059170128189354</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.0061809733493567</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>-0.0582223776904998</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2465,14 +2465,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2480,31 +2480,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.317215750166764</v>
+        <v>0.158879596195042</v>
       </c>
       <c r="G23" t="n">
-        <v>0.008474576271186401</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.906779661016949</v>
+        <v>0.623931623931624</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.185</v>
+        <v>7.75</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0024370760704812</v>
+        <v>-0.009669097550719799</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0042843629599869</v>
+        <v>-0.0271786399196877</v>
       </c>
       <c r="M23" t="n">
-        <v>0.008493359070954601</v>
+        <v>0.0066952682472485</v>
       </c>
       <c r="N23" t="n">
-        <v>1.31733841647635</v>
+        <v>-0.124762549041547</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2542,11 +2542,7 @@
           <t>Whau_3b</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2556,7 +2552,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2571,31 +2567,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.510792740378441</v>
+        <v>0.510418224430734</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.629310344827586</v>
+        <v>0.756302521008403</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>7.77</v>
+        <v>0.202</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0019991789819375</v>
+        <v>-0.0002484693877551</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.018498468762433</v>
+        <v>-0.0066434255313514</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0224957706432838</v>
+        <v>0.0059791242938698</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0257294592269956</v>
+        <v>-0.123004647403516</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2604,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2633,7 +2629,11 @@
           <t>Whau_3b</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.274018426532386</v>
+        <v>0.823957510095945</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.739495798319328</v>
+        <v>0.474576271186441</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.197</v>
+        <v>0.26</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0016227785372522</v>
+        <v>-0.0035813873287383</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0050099799462913</v>
+        <v>-0.0083884706739075</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0086654073800178</v>
+        <v>0.0007385237312888</v>
       </c>
       <c r="N25" t="n">
-        <v>0.823745450381839</v>
+        <v>-1.37745666489936</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2734,43 +2734,43 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>10</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.927505500670518</v>
+        <v>0.306514891836497</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5169491525423729</v>
+        <v>0.008474576271186401</v>
       </c>
       <c r="H26" t="n">
-        <v>0.127118644067797</v>
+        <v>0.245762711864407</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>0.5</v>
+        <v>0.015</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>-0.0002445199343815</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>0.0004893011402827</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2825,14 +2825,14 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>10</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.816908475363351</v>
+        <v>0.0024206193351921</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.525423728813559</v>
+        <v>0.61864406779661</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.26</v>
+        <v>0.415</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.0030118204375974</v>
+        <v>0.0200850305498982</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.0083884933891583</v>
+        <v>0.0081021806913643</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0010921946918138</v>
+        <v>0.0359852216748768</v>
       </c>
       <c r="N27" t="n">
-        <v>-1.158392475999</v>
+        <v>4.83976639756583</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2916,46 +2916,46 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.468198449884088</v>
+        <v>0.0144453507249877</v>
       </c>
       <c r="G28" t="n">
-        <v>0.008474576271186401</v>
+        <v>0.0059171597633136</v>
       </c>
       <c r="H28" t="n">
-        <v>0.245762711864407</v>
+        <v>0.674556213017751</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0.016</v>
+        <v>3.45</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>0.127581509777377</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0003334094020994</v>
+        <v>0.0279784601571916</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0004437044984181</v>
+        <v>0.265310595444329</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>3.69801477615587</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -3007,11 +3007,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -3022,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.136604067171842</v>
+        <v>0.721364522194453</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.103174603174603</v>
       </c>
       <c r="H29" t="n">
-        <v>0.686440677966102</v>
+        <v>0.492063492063492</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J29" t="n">
-        <v>0.47</v>
+        <v>3.2</v>
       </c>
       <c r="K29" t="n">
-        <v>0.009970427661510401</v>
+        <v>0.0438650920736589</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0059293831168831</v>
+        <v>-0.0159013156149036</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0249666833695312</v>
+        <v>0.107237857850093</v>
       </c>
       <c r="N29" t="n">
-        <v>2.12136758755542</v>
+        <v>1.37078412730184</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3098,14 +3098,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3113,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.0006216807620397</v>
+        <v>0.453660238680934</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0063694267515923</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.700636942675159</v>
+        <v>0.808641975308642</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>4</v>
+        <v>10.87</v>
       </c>
       <c r="K30" t="n">
-        <v>0.270878883205207</v>
+        <v>-0.0007674931708341</v>
       </c>
       <c r="L30" t="n">
-        <v>0.114654703686147</v>
+        <v>-0.0218096485852469</v>
       </c>
       <c r="M30" t="n">
-        <v>0.474919189469539</v>
+        <v>0.017476076555024</v>
       </c>
       <c r="N30" t="n">
-        <v>6.77197208013018</v>
+        <v>-0.0070606547454847</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3189,46 +3189,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.768783636774762</v>
+        <v>0.0009983820067596</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.128834355828221</v>
       </c>
       <c r="H31" t="n">
+        <v>0.171779141104294</v>
+      </c>
+      <c r="I31" t="n">
         <v>1</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
       <c r="J31" t="n">
-        <v>0.68</v>
+        <v>0.011</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0137113039545908</v>
+        <v>0.000438910087071</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0417002456289359</v>
+        <v>0.0001898760934672</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0540750320768102</v>
+        <v>0.0006865601503759</v>
       </c>
       <c r="N31" t="n">
-        <v>2.01636822861629</v>
+        <v>3.99009170064593</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3266,7 +3266,11 @@
           <t>Whau_3b</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3276,14 +3280,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3291,31 +3295,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.768783636774762</v>
+        <v>0.995375147314015</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.0062111801242236</v>
       </c>
       <c r="H32" t="n">
+        <v>0.5590062111801239</v>
+      </c>
+      <c r="I32" t="n">
         <v>1</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
       <c r="J32" t="n">
-        <v>128.8</v>
+        <v>59</v>
       </c>
       <c r="K32" t="n">
-        <v>3.15847490873187</v>
+        <v>-2.83397991784573</v>
       </c>
       <c r="L32" t="n">
-        <v>-5.34587248128729</v>
+        <v>-4.98902010010874</v>
       </c>
       <c r="M32" t="n">
-        <v>3.7166271014695</v>
+        <v>-1.24851364639709</v>
       </c>
       <c r="N32" t="n">
-        <v>2.45223207199679</v>
+        <v>-4.80335579295887</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3324,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3353,7 +3357,11 @@
           <t>Whau_3b</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3363,46 +3371,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.95679463351315</v>
+        <v>0.207203699291852</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.905660377358491</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0.138364779874214</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J33" t="n">
-        <v>7.77</v>
+        <v>0.005</v>
       </c>
       <c r="K33" t="n">
-        <v>0.375997382631695</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0673644230771064</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1.06236694098502</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>4.83909115356107</v>
+        <v>0</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3411,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3440,7 +3448,11 @@
           <t>Whau_3b</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3450,46 +3462,46 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.8584345646688269</v>
+        <v>0.657643563517429</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.50920245398773</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0.0920245398773006</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>0.6525</v>
+        <v>0.002</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0088821174377224</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.0055475339457264</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0207316249515239</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>1.36124405175822</v>
+        <v>0</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3498,7 +3510,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3527,7 +3539,11 @@
           <t>Whau_3b</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3537,14 +3553,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -3552,31 +3568,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.9560192628459599</v>
+        <v>0.760607119336264</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.0122699386503067</v>
       </c>
       <c r="H35" t="n">
-        <v>0.9</v>
+        <v>0.858895705521472</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>124</v>
+        <v>0.194</v>
       </c>
       <c r="K35" t="n">
-        <v>1.20544554455446</v>
+        <v>-0.0019328342770034</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0689622715185895</v>
+        <v>-0.00589782982654</v>
       </c>
       <c r="M35" t="n">
-        <v>2.20980811897005</v>
+        <v>0.0022922122453723</v>
       </c>
       <c r="N35" t="n">
-        <v>0.972133503672948</v>
+        <v>-0.996306328352312</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3585,7 +3601,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3614,7 +3630,11 @@
           <t>Whau_3b</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3624,14 +3644,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -3639,31 +3659,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.9899776656886859</v>
+        <v>0.178045406605723</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0.540372670807453</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>7.03</v>
+        <v>7.77</v>
       </c>
       <c r="K36" t="n">
-        <v>0.330193579766537</v>
+        <v>-0.0062489396725954</v>
       </c>
       <c r="L36" t="n">
-        <v>0.07088707038834539</v>
+        <v>-0.0183495915495154</v>
       </c>
       <c r="M36" t="n">
-        <v>0.452916379919444</v>
+        <v>0.00500120313256</v>
       </c>
       <c r="N36" t="n">
-        <v>4.69692147605316</v>
+        <v>-0.0804239340102376</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3672,7 +3692,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3702,6 +3722,892 @@
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Makotuku at SH49A</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.763987622553944</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.76219512195122</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.2055</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.0019759370783395</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.0062900195694716</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0019263542795603</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.961526558802702</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1800243</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5639420</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Whau_3b</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Makotuku at SH49A</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.979832926730746</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.460122699386503</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-0.0041453341740227</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.0074897470950102</v>
+      </c>
+      <c r="M38" t="n">
+        <v>-0.0007147092059946</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-1.48047649072239</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1800243</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5639420</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Whau_3b</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Makotuku at SH49A</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.20836921293511</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0429447852760736</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.184049079754601</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.0001429549902152</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.0001076160075495</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.0003541990316541</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.953033268101762</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1800243</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5639420</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Whau_3b</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Makotuku at SH49A</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>15</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.667138477747953</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.619631901840491</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-0.0021993874584717</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.011452107768657</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.006754280610142</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.467954778398247</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1800243</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5639420</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Whau_3b</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Makotuku at SH49A</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>5</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.0008619751252878</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.0394421369744392</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.0356071604860707</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.126761047836452</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>1800243</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5639420</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Whau_3b</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Makotuku at SH49A</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>5</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.768783636774762</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>132</v>
+      </c>
+      <c r="K42" t="n">
+        <v>3.58118340682531</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-5.34587248128729</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4.22418056120566</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2.71301773244342</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1800243</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5639420</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Whau_3b</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Makotuku at SH49A</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>5</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.889664319040077</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.0756236501280063</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.162298781723236</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.206120959660373</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.957261394025397</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1800243</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5639420</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Whau_3b</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Makotuku at SH49A</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>10</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.894751149972331</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.6615</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.0137552118359112</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-0.0025475417847113</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.022807187757955</v>
+      </c>
+      <c r="N44" t="n">
+        <v>2.07939710293443</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1800243</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5639420</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Whau_3b</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Makotuku at SH49A</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>10</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.996354820954232</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>124</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1.99634690462912</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.00810782753129</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3.08597428560429</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1.60995718115251</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1800243</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5639420</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Whau_3b</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Makotuku at SH49A</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>10</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.997896224357254</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>7.246</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.357179125528914</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.152342943065363</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.48737431595291</v>
+      </c>
+      <c r="N46" t="n">
+        <v>4.92932825736839</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>1800243</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5639420</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Whau_3b</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/MakotukuatSH49A_e6b6f648fa.xlsx
+++ b/trend_results/Rivers/MakotukuatSH49A_e6b6f648fa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="68">
   <si>
     <t>site name</t>
   </si>
@@ -91,42 +91,42 @@
     <t>Chlorophyll A</t>
   </si>
   <si>
+    <t>Dissolved Oxygen Concentration</t>
+  </si>
+  <si>
+    <t>Dissolved Reactive Phosphorus</t>
+  </si>
+  <si>
+    <t>E. coli</t>
+  </si>
+  <si>
+    <t>Ammoniacal Nitrogen (NH4)</t>
+  </si>
+  <si>
+    <t>Nitrite Nitrogen (NO2)</t>
+  </si>
+  <si>
+    <t>Nitrate Nitrogen (NO3)</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>SIN (Soluble Inorganic nitrogen)</t>
+  </si>
+  <si>
+    <t>Total Nitrogen</t>
+  </si>
+  <si>
+    <t>Total Phosphorus</t>
+  </si>
+  <si>
+    <t>Turbidity</t>
+  </si>
+  <si>
     <t>Visual Clarity</t>
   </si>
   <si>
-    <t>Dissolved Oxygen Concentration</t>
-  </si>
-  <si>
-    <t>Dissolved Reactive Phosphorus</t>
-  </si>
-  <si>
-    <t>E. coli</t>
-  </si>
-  <si>
-    <t>Ammoniacal Nitrogen (NH4)</t>
-  </si>
-  <si>
-    <t>Nitrite Nitrogen (NO2)</t>
-  </si>
-  <si>
-    <t>Nitrate Nitrogen (NO3)</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>SIN (Soluble Inorganic nitrogen)</t>
-  </si>
-  <si>
-    <t>Total Nitrogen</t>
-  </si>
-  <si>
-    <t>Total Phosphorus</t>
-  </si>
-  <si>
-    <t>Turbidity</t>
-  </si>
-  <si>
     <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
   </si>
   <si>
@@ -139,51 +139,57 @@
     <t>ok</t>
   </si>
   <si>
+    <t>WARNING: Sen slope based on two censored values</t>
+  </si>
+  <si>
+    <t>WARNING: Sen slope influenced by censored values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope based on tied non-censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on two censored values</t>
-  </si>
-  <si>
-    <t>WARNING: Sen slope influenced by censored values</t>
-  </si>
-  <si>
     <t>RepSite</t>
   </si>
   <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely increasing</t>
+  </si>
+  <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Very unlikely increasing</t>
+  </si>
+  <si>
+    <t>Very likely improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely increasing</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>Unlikely increasing</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
     <t>Extremely likely improving</t>
   </si>
   <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely increasing</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely increasing</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Unlikely increasing</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
     <t>Ruapehu District</t>
   </si>
   <si>
@@ -199,19 +205,19 @@
     <t>mg/m2</t>
   </si>
   <si>
+    <t>g/m3</t>
+  </si>
+  <si>
+    <t>mg/L</t>
+  </si>
+  <si>
+    <t>E. coli/100 mL</t>
+  </si>
+  <si>
+    <t>NTU/FNU</t>
+  </si>
+  <si>
     <t>m</t>
-  </si>
-  <si>
-    <t>g/m3</t>
-  </si>
-  <si>
-    <t>mg/L</t>
-  </si>
-  <si>
-    <t>E. coli/100 mL</t>
-  </si>
-  <si>
-    <t>NTU/FNU</t>
   </si>
 </sst>
 </file>
@@ -569,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W46"/>
+  <dimension ref="A1:W45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -663,31 +669,31 @@
         <v>40</v>
       </c>
       <c r="F2">
-        <v>0.971316085122176</v>
+        <v>0.874932317383635</v>
       </c>
       <c r="G2">
         <v>0.0175438596491228</v>
       </c>
       <c r="H2">
-        <v>0.842105263157895</v>
+        <v>0.789473684210526</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>2.7</v>
+        <v>2.35</v>
       </c>
       <c r="K2">
-        <v>-0.423334708236142</v>
+        <v>-0.217410714285714</v>
       </c>
       <c r="L2">
-        <v>-0.939628282177613</v>
+        <v>-0.610407216714023</v>
       </c>
       <c r="M2">
-        <v>-0.0585061132643574</v>
+        <v>0.103572448030068</v>
       </c>
       <c r="N2">
-        <v>-15.6790632680053</v>
+        <v>-9.251519756838899</v>
       </c>
       <c r="O2" t="s">
         <v>44</v>
@@ -702,19 +708,19 @@
         <v>5639420</v>
       </c>
       <c r="S2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -728,37 +734,37 @@
         <v>5</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>40</v>
       </c>
       <c r="F3">
-        <v>0.0047017687712039</v>
+        <v>0.0031891092702289</v>
       </c>
       <c r="G3">
-        <v>0.03125</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.78125</v>
+        <v>0.827586206896552</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>3.35</v>
+        <v>10.87</v>
       </c>
       <c r="K3">
-        <v>-0.543526785714286</v>
+        <v>-0.105303036308864</v>
       </c>
       <c r="L3">
-        <v>-0.854230349102579</v>
+        <v>-0.170583791208792</v>
       </c>
       <c r="M3">
-        <v>-0.219256593843615</v>
+        <v>-0.0553803403778218</v>
       </c>
       <c r="N3">
-        <v>-16.2246801705757</v>
+        <v>-0.968749184074182</v>
       </c>
       <c r="O3" t="s">
         <v>44</v>
@@ -773,19 +779,19 @@
         <v>5639420</v>
       </c>
       <c r="S3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -799,37 +805,37 @@
         <v>5</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>40</v>
       </c>
       <c r="F4">
-        <v>0.007491446845039</v>
+        <v>0.0789928887071195</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.862068965517241</v>
+        <v>0.413793103448276</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.955</v>
+        <v>0.012</v>
       </c>
       <c r="K4">
-        <v>-0.0993458625488409</v>
+        <v>0.0008553864168618</v>
       </c>
       <c r="L4">
-        <v>-0.203744897959183</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>-0.0433963123699957</v>
+        <v>0.0018635204081632</v>
       </c>
       <c r="N4">
-        <v>-0.906854062517945</v>
+        <v>7.12822014051523</v>
       </c>
       <c r="O4" t="s">
         <v>44</v>
@@ -844,19 +850,19 @@
         <v>5639420</v>
       </c>
       <c r="S4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -870,37 +876,37 @@
         <v>5</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5">
-        <v>0.323709039892631</v>
+        <v>0.470455488613916</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.431034482758621</v>
+        <v>0.758620689655172</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.012</v>
+        <v>53</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.30103021978022</v>
       </c>
       <c r="L5">
-        <v>-0.0007794329868205</v>
+        <v>-7.4200713258852</v>
       </c>
       <c r="M5">
-        <v>0.0012423469387755</v>
+        <v>6.77116120229158</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.567981546755133</v>
       </c>
       <c r="O5" t="s">
         <v>44</v>
@@ -915,19 +921,19 @@
         <v>5639420</v>
       </c>
       <c r="S5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -941,43 +947,43 @@
         <v>5</v>
       </c>
       <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6">
+        <v>0.5443877367227929</v>
+      </c>
+      <c r="G6">
+        <v>0.859649122807018</v>
+      </c>
+      <c r="H6">
+        <v>0.140350877192982</v>
+      </c>
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6">
-        <v>0.6758666899971369</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0.631578947368421</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
       <c r="J6">
-        <v>52</v>
+        <v>0.005</v>
       </c>
       <c r="K6">
-        <v>-2.1268961301856</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>-7.10712310921132</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>4.7476057828174</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>-4.09018486574155</v>
+        <v>0</v>
       </c>
       <c r="O6" t="s">
         <v>44</v>
       </c>
       <c r="P6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q6">
         <v>1800243</v>
@@ -986,16 +992,16 @@
         <v>5639420</v>
       </c>
       <c r="S6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W6" t="s">
         <v>64</v>
@@ -1018,19 +1024,19 @@
         <v>42</v>
       </c>
       <c r="F7">
-        <v>0.220729996238753</v>
+        <v>0.99865405309343</v>
       </c>
       <c r="G7">
-        <v>0.857142857142857</v>
+        <v>0.655172413793103</v>
       </c>
       <c r="H7">
-        <v>0.142857142857143</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1048,7 +1054,7 @@
         <v>44</v>
       </c>
       <c r="P7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q7">
         <v>1800243</v>
@@ -1057,19 +1063,19 @@
         <v>5639420</v>
       </c>
       <c r="S7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1086,34 +1092,34 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F8">
-        <v>0.999788040903288</v>
+        <v>0.240606057607783</v>
       </c>
       <c r="G8">
-        <v>0.517241379310345</v>
+        <v>0.0172413793103448</v>
       </c>
       <c r="H8">
-        <v>0.120689655172414</v>
+        <v>0.982758620689655</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.001</v>
+        <v>0.1985</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.0093653846153846</v>
       </c>
       <c r="L8">
-        <v>-0.0003922667324011</v>
+        <v>-0.0177200378007764</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.029703265171143</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>4.71807789188142</v>
       </c>
       <c r="O8" t="s">
         <v>44</v>
@@ -1128,19 +1134,19 @@
         <v>5639420</v>
       </c>
       <c r="S8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1154,43 +1160,43 @@
         <v>5</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
         <v>40</v>
       </c>
       <c r="F9">
-        <v>0.253508774251516</v>
+        <v>0.08274137181055299</v>
       </c>
       <c r="G9">
-        <v>0.0172413793103448</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.9655172413793101</v>
+        <v>0.745762711864407</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1925</v>
+        <v>7.7</v>
       </c>
       <c r="K9">
-        <v>0.0090105018336926</v>
+        <v>-0.039274193548387</v>
       </c>
       <c r="L9">
-        <v>-0.0121915851531901</v>
+        <v>-0.0849959383840693</v>
       </c>
       <c r="M9">
-        <v>0.0217633393797888</v>
+        <v>0.0067685224459591</v>
       </c>
       <c r="N9">
-        <v>4.68078017334682</v>
+        <v>-0.510054461667364</v>
       </c>
       <c r="O9" t="s">
         <v>44</v>
       </c>
       <c r="P9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Q9">
         <v>1800243</v>
@@ -1199,19 +1205,16 @@
         <v>5639420</v>
       </c>
       <c r="S9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V9" t="s">
-        <v>59</v>
-      </c>
-      <c r="W9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1231,37 +1234,37 @@
         <v>40</v>
       </c>
       <c r="F10">
-        <v>0.016702504748759</v>
+        <v>0.347380310336433</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.758620689655172</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.715</v>
+        <v>0.211</v>
       </c>
       <c r="K10">
-        <v>-0.0573964285714287</v>
+        <v>0.0048844725111441</v>
       </c>
       <c r="L10">
-        <v>-0.100990783410138</v>
+        <v>-0.0205463280087278</v>
       </c>
       <c r="M10">
-        <v>-0.0144685312101585</v>
+        <v>0.0242461199367043</v>
       </c>
       <c r="N10">
-        <v>-0.7439588926951231</v>
+        <v>2.31491588205883</v>
       </c>
       <c r="O10" t="s">
         <v>44</v>
       </c>
       <c r="P10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Q10">
         <v>1800243</v>
@@ -1270,16 +1273,19 @@
         <v>5639420</v>
       </c>
       <c r="S10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V10" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="W10" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1296,40 +1302,40 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F11">
-        <v>0.414296537609323</v>
+        <v>0.411044285784933</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.915254237288136</v>
+        <v>0.5344827586206899</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.201</v>
+        <v>0.26</v>
       </c>
       <c r="K11">
-        <v>0.0012556747230042</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>-0.0152771862334077</v>
+        <v>-0.0166740450465026</v>
       </c>
       <c r="M11">
-        <v>0.0211259349555625</v>
+        <v>0.0165743842314273</v>
       </c>
       <c r="N11">
-        <v>0.624713792539436</v>
+        <v>0</v>
       </c>
       <c r="O11" t="s">
         <v>44</v>
       </c>
       <c r="P11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="Q11">
         <v>1800243</v>
@@ -1338,19 +1344,19 @@
         <v>5639420</v>
       </c>
       <c r="S11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1364,43 +1370,43 @@
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
         <v>40</v>
       </c>
       <c r="F12">
-        <v>0.183082903070796</v>
+        <v>0.178530829403843</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.5</v>
+        <v>0.396551724137931</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.26</v>
+        <v>0.016</v>
       </c>
       <c r="K12">
-        <v>0.008361950549450501</v>
+        <v>0.0005214132762312</v>
       </c>
       <c r="L12">
-        <v>-0.004818174621914</v>
+        <v>-0.0004535507206825</v>
       </c>
       <c r="M12">
-        <v>0.0196900269541779</v>
+        <v>0.0015011963606379</v>
       </c>
       <c r="N12">
-        <v>3.21613482671175</v>
+        <v>3.2588329764454</v>
       </c>
       <c r="O12" t="s">
         <v>44</v>
       </c>
       <c r="P12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q12">
         <v>1800243</v>
@@ -1409,19 +1415,19 @@
         <v>5639420</v>
       </c>
       <c r="S12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1441,37 +1447,37 @@
         <v>40</v>
       </c>
       <c r="F13">
-        <v>0.0044469555000864</v>
+        <v>0.931038055481239</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.413793103448276</v>
+        <v>0.706896551724138</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.015</v>
+        <v>0.435</v>
       </c>
       <c r="K13">
-        <v>0.0015575692963752</v>
+        <v>-0.0338194444444444</v>
       </c>
       <c r="L13">
-        <v>0.0005245927399218</v>
+        <v>-0.0890853658536585</v>
       </c>
       <c r="M13">
-        <v>0.0025077430571443</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>10.3837953091684</v>
+        <v>-7.77458492975734</v>
       </c>
       <c r="O13" t="s">
         <v>44</v>
       </c>
       <c r="P13" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="Q13">
         <v>1800243</v>
@@ -1480,19 +1486,19 @@
         <v>5639420</v>
       </c>
       <c r="S13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W13" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1500,43 +1506,43 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="s">
         <v>40</v>
       </c>
       <c r="F14">
-        <v>0.831062575630752</v>
+        <v>0.999999997026872</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0086206896551724</v>
       </c>
       <c r="H14">
-        <v>0.724137931034483</v>
+        <v>0.681034482758621</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>0.495</v>
+        <v>4.5</v>
       </c>
       <c r="K14">
-        <v>-0.0200686813186813</v>
+        <v>-1.18550252980458</v>
       </c>
       <c r="L14">
-        <v>-0.0678494491777923</v>
+        <v>-1.61055868594208</v>
       </c>
       <c r="M14">
-        <v>0.034251541654471</v>
+        <v>-0.807459551544696</v>
       </c>
       <c r="N14">
-        <v>-4.05427905427905</v>
+        <v>-26.344500662324</v>
       </c>
       <c r="O14" t="s">
         <v>44</v>
@@ -1551,19 +1557,19 @@
         <v>5639420</v>
       </c>
       <c r="S14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1571,7 +1577,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -1583,31 +1589,31 @@
         <v>40</v>
       </c>
       <c r="F15">
-        <v>0.9999999885944</v>
+        <v>0.318519631784084</v>
       </c>
       <c r="G15">
-        <v>0.0087719298245614</v>
+        <v>0.0675675675675676</v>
       </c>
       <c r="H15">
-        <v>0.710526315789474</v>
+        <v>0.527027027027027</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="K15">
-        <v>-1.44139700078927</v>
+        <v>-0.0028424124513619</v>
       </c>
       <c r="L15">
-        <v>-1.87839341150346</v>
+        <v>-0.117499651594378</v>
       </c>
       <c r="M15">
-        <v>-1.04332778462168</v>
+        <v>0.07755746157644609</v>
       </c>
       <c r="N15">
-        <v>-20.5913857255609</v>
+        <v>-0.0861337106473308</v>
       </c>
       <c r="O15" t="s">
         <v>44</v>
@@ -1622,19 +1628,19 @@
         <v>5639420</v>
       </c>
       <c r="S15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W15" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1648,43 +1654,43 @@
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
         <v>40</v>
       </c>
       <c r="F16">
-        <v>0.27035733691925</v>
+        <v>0.012345766715259</v>
       </c>
       <c r="G16">
-        <v>0.0823529411764706</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>0.529411764705882</v>
+        <v>0.813559322033898</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>3.2</v>
+        <v>10.94</v>
       </c>
       <c r="K16">
-        <v>0.0271073973120311</v>
+        <v>-0.0422319054964</v>
       </c>
       <c r="L16">
-        <v>-0.0618791424006449</v>
+        <v>-0.0603860911939974</v>
       </c>
       <c r="M16">
-        <v>0.119718599174301</v>
+        <v>-0.0100271707176774</v>
       </c>
       <c r="N16">
-        <v>0.84710616600097</v>
+        <v>-0.386032042928702</v>
       </c>
       <c r="O16" t="s">
         <v>44</v>
       </c>
       <c r="P16" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q16">
         <v>1800243</v>
@@ -1693,19 +1699,19 @@
         <v>5639420</v>
       </c>
       <c r="S16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1722,40 +1728,40 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F17">
-        <v>0.287177277331182</v>
+        <v>0.6650004664765981</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.846153846153846</v>
+        <v>0.245762711864407</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.87</v>
+        <v>0.012</v>
       </c>
       <c r="K17">
-        <v>-0.0083352350524872</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>-0.0430695608826105</v>
+        <v>-0.0004254839503854</v>
       </c>
       <c r="M17">
-        <v>0.0180774189220922</v>
+        <v>0.0002496582365003</v>
       </c>
       <c r="N17">
-        <v>-0.07668109523907329</v>
+        <v>0</v>
       </c>
       <c r="O17" t="s">
         <v>44</v>
       </c>
       <c r="P17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q17">
         <v>1800243</v>
@@ -1764,19 +1770,19 @@
         <v>5639420</v>
       </c>
       <c r="S17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1796,37 +1802,37 @@
         <v>40</v>
       </c>
       <c r="F18">
-        <v>0.817190987747928</v>
+        <v>0.715804229919432</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0086206896551724</v>
       </c>
       <c r="H18">
-        <v>0.254237288135593</v>
+        <v>0.551724137931034</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>0.0125</v>
+        <v>54</v>
       </c>
       <c r="K18">
-        <v>-0.0002496582365003</v>
+        <v>-0.665756990816514</v>
       </c>
       <c r="L18">
-        <v>-0.0005689661746149</v>
+        <v>-2.98163265306122</v>
       </c>
       <c r="M18">
-        <v>0.0001667047010497</v>
+        <v>1.21611958819118</v>
       </c>
       <c r="N18">
-        <v>-1.99726589200273</v>
+        <v>-1.23288331632688</v>
       </c>
       <c r="O18" t="s">
         <v>44</v>
       </c>
       <c r="P18" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q18">
         <v>1800243</v>
@@ -1835,19 +1841,19 @@
         <v>5639420</v>
       </c>
       <c r="S18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1861,43 +1867,43 @@
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F19">
-        <v>0.76022286028264</v>
+        <v>0.144596830010821</v>
       </c>
       <c r="G19">
-        <v>0.0086206896551724</v>
+        <v>0.904347826086957</v>
       </c>
       <c r="H19">
-        <v>0.491379310344828</v>
+        <v>0.147826086956522</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J19">
-        <v>54</v>
+        <v>0.005</v>
       </c>
       <c r="K19">
-        <v>-0.999111218485084</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>-3.00158262807228</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>1.00161487512711</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>-1.85020596015756</v>
+        <v>0</v>
       </c>
       <c r="O19" t="s">
         <v>44</v>
       </c>
       <c r="P19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q19">
         <v>1800243</v>
@@ -1906,16 +1912,16 @@
         <v>5639420</v>
       </c>
       <c r="S19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W19" t="s">
         <v>64</v>
@@ -1938,25 +1944,25 @@
         <v>42</v>
       </c>
       <c r="F20">
-        <v>0.117672560487931</v>
+        <v>0.999947576688372</v>
       </c>
       <c r="G20">
-        <v>0.904347826086957</v>
+        <v>0.525423728813559</v>
       </c>
       <c r="H20">
-        <v>0.147826086956522</v>
+        <v>0.11864406779661</v>
       </c>
       <c r="I20">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>-0.0001037956741474</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1968,7 +1974,7 @@
         <v>44</v>
       </c>
       <c r="P20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q20">
         <v>1800243</v>
@@ -1977,19 +1983,19 @@
         <v>5639420</v>
       </c>
       <c r="S20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2006,40 +2012,40 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F21">
-        <v>0.999757540022156</v>
+        <v>0.542076478529203</v>
       </c>
       <c r="G21">
-        <v>0.440677966101695</v>
+        <v>0.008474576271186401</v>
       </c>
       <c r="H21">
-        <v>0.11864406779661</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.002</v>
+        <v>0.1955</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>-0.0010849173066896</v>
       </c>
       <c r="L21">
-        <v>-0.00020040406756</v>
+        <v>-0.0065764167858728</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.0044627435862012</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>-0.554944913907755</v>
       </c>
       <c r="O21" t="s">
         <v>44</v>
       </c>
       <c r="P21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q21">
         <v>1800243</v>
@@ -2048,19 +2054,19 @@
         <v>5639420</v>
       </c>
       <c r="S21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2074,43 +2080,43 @@
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="s">
         <v>40</v>
       </c>
       <c r="F22">
-        <v>0.5</v>
+        <v>0.050511381242376</v>
       </c>
       <c r="G22">
-        <v>0.008474576271186401</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>0.898305084745763</v>
+        <v>0.606837606837607</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1925</v>
+        <v>7.75</v>
       </c>
       <c r="K22">
-        <v>-0.0001120780770542</v>
+        <v>-0.0168590331528791</v>
       </c>
       <c r="L22">
-        <v>-0.0059170128189354</v>
+        <v>-0.03328139422585</v>
       </c>
       <c r="M22">
-        <v>0.0061809733493567</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>-0.0582223776904998</v>
+        <v>-0.217535911650053</v>
       </c>
       <c r="O22" t="s">
         <v>44</v>
       </c>
       <c r="P22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q22">
         <v>1800243</v>
@@ -2119,19 +2125,16 @@
         <v>5639420</v>
       </c>
       <c r="S22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V22" t="s">
-        <v>59</v>
-      </c>
-      <c r="W22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2145,43 +2148,43 @@
         <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="s">
         <v>40</v>
       </c>
       <c r="F23">
-        <v>0.158879596195042</v>
+        <v>0.623056413547151</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.623931623931624</v>
+        <v>0.747899159663866</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.75</v>
+        <v>0.205</v>
       </c>
       <c r="K23">
-        <v>-0.009669097550719799</v>
+        <v>-0.0011995073891625</v>
       </c>
       <c r="L23">
-        <v>-0.0271786399196877</v>
+        <v>-0.0070236275680143</v>
       </c>
       <c r="M23">
-        <v>0.0066952682472485</v>
+        <v>0.0042386152056318</v>
       </c>
       <c r="N23">
-        <v>-0.124762549041547</v>
+        <v>-0.58512555568905</v>
       </c>
       <c r="O23" t="s">
         <v>44</v>
       </c>
       <c r="P23" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q23">
         <v>1800243</v>
@@ -2190,16 +2193,19 @@
         <v>5639420</v>
       </c>
       <c r="S23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T23" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V23" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="W23" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2219,37 +2225,37 @@
         <v>40</v>
       </c>
       <c r="F24">
-        <v>0.510418224430734</v>
+        <v>0.763733232365185</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.756302521008403</v>
+        <v>0.398305084745763</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.202</v>
+        <v>0.26</v>
       </c>
       <c r="K24">
-        <v>-0.0002484693877551</v>
+        <v>-0.001928796927368</v>
       </c>
       <c r="L24">
-        <v>-0.0066434255313514</v>
+        <v>-0.0074897470950102</v>
       </c>
       <c r="M24">
-        <v>0.0059791242938698</v>
+        <v>0.0016670470104974</v>
       </c>
       <c r="N24">
-        <v>-0.123004647403516</v>
+        <v>-0.741844972064623</v>
       </c>
       <c r="O24" t="s">
         <v>44</v>
       </c>
       <c r="P24" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="Q24">
         <v>1800243</v>
@@ -2258,19 +2264,19 @@
         <v>5639420</v>
       </c>
       <c r="S24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2290,37 +2296,37 @@
         <v>40</v>
       </c>
       <c r="F25">
-        <v>0.823957510095945</v>
+        <v>0.19741486547007</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.008474576271186401</v>
       </c>
       <c r="H25">
-        <v>0.474576271186441</v>
+        <v>0.23728813559322</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>0.26</v>
+        <v>0.015</v>
       </c>
       <c r="K25">
-        <v>-0.0035813873287383</v>
+        <v>0.0001666666753423</v>
       </c>
       <c r="L25">
-        <v>-0.0083884706739075</v>
+        <v>-0.0001649600786634</v>
       </c>
       <c r="M25">
-        <v>0.0007385237312888</v>
+        <v>0.0004989903214126</v>
       </c>
       <c r="N25">
-        <v>-1.37745666489936</v>
+        <v>1.11111116894928</v>
       </c>
       <c r="O25" t="s">
         <v>44</v>
       </c>
       <c r="P25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q25">
         <v>1800243</v>
@@ -2329,19 +2335,19 @@
         <v>5639420</v>
       </c>
       <c r="S25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2355,43 +2361,43 @@
         <v>10</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F26">
-        <v>0.306514891836497</v>
+        <v>0.0237201539166466</v>
       </c>
       <c r="G26">
-        <v>0.008474576271186401</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>0.245762711864407</v>
+        <v>0.584745762711864</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>0.015</v>
+        <v>0.425</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>0.0126111350884765</v>
       </c>
       <c r="L26">
-        <v>-0.0002445199343815</v>
+        <v>0.0017119900972611</v>
       </c>
       <c r="M26">
-        <v>0.0004893011402827</v>
+        <v>0.0244391998351814</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>2.96732590317094</v>
       </c>
       <c r="O26" t="s">
         <v>44</v>
       </c>
       <c r="P26" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="Q26">
         <v>1800243</v>
@@ -2400,19 +2406,19 @@
         <v>5639420</v>
       </c>
       <c r="S26" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T26" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W26" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2420,49 +2426,49 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C27">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F27">
-        <v>0.0024206193351921</v>
+        <v>0.474572303481213</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>0.0057471264367816</v>
       </c>
       <c r="H27">
-        <v>0.61864406779661</v>
+        <v>0.64367816091954</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>0.415</v>
+        <v>3.35</v>
       </c>
       <c r="K27">
-        <v>0.0200850305498982</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>0.0081021806913643</v>
+        <v>-0.095448606271777</v>
       </c>
       <c r="M27">
-        <v>0.0359852216748768</v>
+        <v>0.0870934034335147</v>
       </c>
       <c r="N27">
-        <v>4.83976639756583</v>
+        <v>0</v>
       </c>
       <c r="O27" t="s">
         <v>44</v>
       </c>
       <c r="P27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q27">
         <v>1800243</v>
@@ -2471,19 +2477,19 @@
         <v>5639420</v>
       </c>
       <c r="S27" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W27" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2491,7 +2497,7 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C28">
         <v>15</v>
@@ -2503,37 +2509,37 @@
         <v>40</v>
       </c>
       <c r="F28">
-        <v>0.0144453507249877</v>
+        <v>0.721364522194453</v>
       </c>
       <c r="G28">
-        <v>0.0059171597633136</v>
+        <v>0.103174603174603</v>
       </c>
       <c r="H28">
-        <v>0.674556213017751</v>
+        <v>0.492063492063492</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J28">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="K28">
-        <v>0.127581509777377</v>
+        <v>0.0438650920736589</v>
       </c>
       <c r="L28">
-        <v>0.0279784601571916</v>
+        <v>-0.0159013156149036</v>
       </c>
       <c r="M28">
-        <v>0.265310595444329</v>
+        <v>0.107237857850093</v>
       </c>
       <c r="N28">
-        <v>3.69801477615587</v>
+        <v>1.37078412730184</v>
       </c>
       <c r="O28" t="s">
         <v>44</v>
       </c>
       <c r="P28" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Q28">
         <v>1800243</v>
@@ -2542,19 +2548,19 @@
         <v>5639420</v>
       </c>
       <c r="S28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T28" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U28" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V28" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W28" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2568,43 +2574,43 @@
         <v>15</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="s">
         <v>40</v>
       </c>
       <c r="F29">
-        <v>0.721364522194453</v>
+        <v>0.213555001967355</v>
       </c>
       <c r="G29">
-        <v>0.103174603174603</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>0.492063492063492</v>
+        <v>0.793103448275862</v>
       </c>
       <c r="I29">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>3.2</v>
+        <v>10.87</v>
       </c>
       <c r="K29">
-        <v>0.0438650920736589</v>
+        <v>-0.008577299412915899</v>
       </c>
       <c r="L29">
-        <v>-0.0159013156149036</v>
+        <v>-0.0276564623564002</v>
       </c>
       <c r="M29">
-        <v>0.107237857850093</v>
+        <v>0.0085913093674309</v>
       </c>
       <c r="N29">
-        <v>1.37078412730184</v>
+        <v>-0.0789079982788953</v>
       </c>
       <c r="O29" t="s">
         <v>44</v>
       </c>
       <c r="P29" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="Q29">
         <v>1800243</v>
@@ -2613,19 +2619,19 @@
         <v>5639420</v>
       </c>
       <c r="S29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T29" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U29" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2645,37 +2651,37 @@
         <v>40</v>
       </c>
       <c r="F30">
-        <v>0.453660238680934</v>
+        <v>0.0015817525933371</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="H30">
-        <v>0.808641975308642</v>
+        <v>0.16</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>10.87</v>
+        <v>0.011</v>
       </c>
       <c r="K30">
-        <v>-0.0007674931708341</v>
+        <v>0.0003735935901807</v>
       </c>
       <c r="L30">
-        <v>-0.0218096485852469</v>
+        <v>0.0001425644028103</v>
       </c>
       <c r="M30">
-        <v>0.017476076555024</v>
+        <v>0.0005997536945812</v>
       </c>
       <c r="N30">
-        <v>-0.0070606547454847</v>
+        <v>3.39630536527911</v>
       </c>
       <c r="O30" t="s">
         <v>44</v>
       </c>
       <c r="P30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q30">
         <v>1800243</v>
@@ -2684,19 +2690,19 @@
         <v>5639420</v>
       </c>
       <c r="S30" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U30" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V30" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2713,40 +2719,40 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F31">
-        <v>0.0009983820067596</v>
+        <v>0.990041464213005</v>
       </c>
       <c r="G31">
-        <v>0.128834355828221</v>
+        <v>0.0057803468208092</v>
       </c>
       <c r="H31">
-        <v>0.171779141104294</v>
+        <v>0.5895953757225429</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31">
-        <v>0.011</v>
+        <v>59</v>
       </c>
       <c r="K31">
-        <v>0.000438910087071</v>
+        <v>-2.31302817054341</v>
       </c>
       <c r="L31">
-        <v>0.0001898760934672</v>
+        <v>-4.06986297982707</v>
       </c>
       <c r="M31">
-        <v>0.0006865601503759</v>
+        <v>-0.6319796972567721</v>
       </c>
       <c r="N31">
-        <v>3.99009170064593</v>
+        <v>-3.92038672973459</v>
       </c>
       <c r="O31" t="s">
         <v>44</v>
       </c>
       <c r="P31" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q31">
         <v>1800243</v>
@@ -2755,19 +2761,19 @@
         <v>5639420</v>
       </c>
       <c r="S31" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T31" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U31" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V31" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2781,37 +2787,37 @@
         <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F32">
-        <v>0.995375147314015</v>
+        <v>0.255897326622433</v>
       </c>
       <c r="G32">
-        <v>0.0062111801242236</v>
+        <v>0.906432748538012</v>
       </c>
       <c r="H32">
-        <v>0.5590062111801239</v>
+        <v>0.134502923976608</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J32">
-        <v>59</v>
+        <v>0.005</v>
       </c>
       <c r="K32">
-        <v>-2.83397991784573</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>-4.98902010010874</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>-1.24851364639709</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>-4.80335579295887</v>
+        <v>0</v>
       </c>
       <c r="O32" t="s">
         <v>44</v>
@@ -2826,16 +2832,16 @@
         <v>5639420</v>
       </c>
       <c r="S32" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T32" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U32" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V32" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W32" t="s">
         <v>64</v>
@@ -2852,25 +2858,25 @@
         <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="s">
         <v>42</v>
       </c>
       <c r="F33">
-        <v>0.207203699291852</v>
+        <v>0.876826572339762</v>
       </c>
       <c r="G33">
-        <v>0.905660377358491</v>
+        <v>0.531428571428571</v>
       </c>
       <c r="H33">
-        <v>0.138364779874214</v>
+        <v>0.0857142857142857</v>
       </c>
       <c r="I33">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J33">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -2888,7 +2894,7 @@
         <v>44</v>
       </c>
       <c r="P33" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q33">
         <v>1800243</v>
@@ -2897,19 +2903,19 @@
         <v>5639420</v>
       </c>
       <c r="S33" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T33" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U33" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2926,40 +2932,40 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F34">
-        <v>0.657643563517429</v>
+        <v>0.693192332483957</v>
       </c>
       <c r="G34">
-        <v>0.50920245398773</v>
+        <v>0.0114285714285714</v>
       </c>
       <c r="H34">
-        <v>0.0920245398773006</v>
+        <v>0.84</v>
       </c>
       <c r="I34">
         <v>2</v>
       </c>
       <c r="J34">
-        <v>0.002</v>
+        <v>0.197</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>-0.0014230519480519</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>-0.0050171703296703</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>0.0027870556690276</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>-0.722361394950227</v>
       </c>
       <c r="O34" t="s">
         <v>44</v>
       </c>
       <c r="P34" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="Q34">
         <v>1800243</v>
@@ -2968,19 +2974,19 @@
         <v>5639420</v>
       </c>
       <c r="S34" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T34" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U34" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V34" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3000,37 +3006,37 @@
         <v>40</v>
       </c>
       <c r="F35">
-        <v>0.760607119336264</v>
+        <v>0.128555473542864</v>
       </c>
       <c r="G35">
-        <v>0.0122699386503067</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>0.858895705521472</v>
+        <v>0.514450867052023</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>0.194</v>
+        <v>7.77</v>
       </c>
       <c r="K35">
-        <v>-0.0019328342770034</v>
+        <v>-0.0066469517743403</v>
       </c>
       <c r="L35">
-        <v>-0.00589782982654</v>
+        <v>-0.0174619670748953</v>
       </c>
       <c r="M35">
-        <v>0.0022922122453723</v>
+        <v>0.0033311098250731</v>
       </c>
       <c r="N35">
-        <v>-0.996306328352312</v>
+        <v>-0.08554635488211471</v>
       </c>
       <c r="O35" t="s">
         <v>44</v>
       </c>
       <c r="P35" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="Q35">
         <v>1800243</v>
@@ -3039,19 +3045,16 @@
         <v>5639420</v>
       </c>
       <c r="S35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T35" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V35" t="s">
-        <v>59</v>
-      </c>
-      <c r="W35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3071,37 +3074,37 @@
         <v>40</v>
       </c>
       <c r="F36">
-        <v>0.178045406605723</v>
+        <v>0.717376433253763</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.540372670807453</v>
+        <v>0.761363636363636</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>7.77</v>
+        <v>0.2085</v>
       </c>
       <c r="K36">
-        <v>-0.0062489396725954</v>
+        <v>-0.0013062349900804</v>
       </c>
       <c r="L36">
-        <v>-0.0183495915495154</v>
+        <v>-0.0055680612245131</v>
       </c>
       <c r="M36">
-        <v>0.00500120313256</v>
+        <v>0.0022976675902093</v>
       </c>
       <c r="N36">
-        <v>-0.0804239340102376</v>
+        <v>-0.626491601957027</v>
       </c>
       <c r="O36" t="s">
         <v>44</v>
       </c>
       <c r="P36" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="Q36">
         <v>1800243</v>
@@ -3110,16 +3113,19 @@
         <v>5639420</v>
       </c>
       <c r="S36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T36" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U36" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V36" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="W36" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3139,37 +3145,37 @@
         <v>40</v>
       </c>
       <c r="F37">
-        <v>0.763987622553944</v>
+        <v>0.982178215091765</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.76219512195122</v>
+        <v>0.44</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0.2055</v>
+        <v>0.28</v>
       </c>
       <c r="K37">
-        <v>-0.0019759370783395</v>
+        <v>-0.0039983579638752</v>
       </c>
       <c r="L37">
-        <v>-0.0062900195694716</v>
+        <v>-0.0066839628797997</v>
       </c>
       <c r="M37">
-        <v>0.0019263542795603</v>
+        <v>-0.0008326001387744</v>
       </c>
       <c r="N37">
-        <v>-0.961526558802702</v>
+        <v>-1.42798498709829</v>
       </c>
       <c r="O37" t="s">
         <v>44</v>
       </c>
       <c r="P37" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="Q37">
         <v>1800243</v>
@@ -3178,19 +3184,19 @@
         <v>5639420</v>
       </c>
       <c r="S37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T37" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V37" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3210,37 +3216,37 @@
         <v>40</v>
       </c>
       <c r="F38">
-        <v>0.979832926730746</v>
+        <v>0.275085744826607</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="H38">
-        <v>0.460122699386503</v>
+        <v>0.171428571428571</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38">
-        <v>0.28</v>
+        <v>0.015</v>
       </c>
       <c r="K38">
-        <v>-0.0041453341740227</v>
+        <v>0.000111254949741</v>
       </c>
       <c r="L38">
-        <v>-0.0074897470950102</v>
+        <v>-0.0001196824809871</v>
       </c>
       <c r="M38">
-        <v>-0.0007147092059946</v>
+        <v>0.0002859099804305</v>
       </c>
       <c r="N38">
-        <v>-1.48047649072239</v>
+        <v>0.741699664940601</v>
       </c>
       <c r="O38" t="s">
         <v>44</v>
       </c>
       <c r="P38" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Q38">
         <v>1800243</v>
@@ -3249,19 +3255,19 @@
         <v>5639420</v>
       </c>
       <c r="S38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T38" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U38" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V38" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3275,43 +3281,43 @@
         <v>15</v>
       </c>
       <c r="D39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="s">
         <v>40</v>
       </c>
       <c r="F39">
-        <v>0.20836921293511</v>
+        <v>0.837945845869003</v>
       </c>
       <c r="G39">
-        <v>0.0429447852760736</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>0.184049079754601</v>
+        <v>0.605714285714286</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>0.015</v>
+        <v>0.46</v>
       </c>
       <c r="K39">
-        <v>0.0001429549902152</v>
+        <v>-0.0044132623705408</v>
       </c>
       <c r="L39">
-        <v>-0.0001076160075495</v>
+        <v>-0.0123407812806315</v>
       </c>
       <c r="M39">
-        <v>0.0003541990316541</v>
+        <v>0.0029529149288907</v>
       </c>
       <c r="N39">
-        <v>0.953033268101762</v>
+        <v>-0.959404863161055</v>
       </c>
       <c r="O39" t="s">
         <v>44</v>
       </c>
       <c r="P39" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q39">
         <v>1800243</v>
@@ -3320,19 +3326,19 @@
         <v>5639420</v>
       </c>
       <c r="S39" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T39" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U39" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V39" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W39" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3340,10 +3346,10 @@
         <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C40">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
@@ -3352,37 +3358,37 @@
         <v>40</v>
       </c>
       <c r="F40">
-        <v>0.667138477747953</v>
+        <v>0.768783636774762</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0.619631901840491</v>
+        <v>1</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>0.47</v>
+        <v>0.68</v>
       </c>
       <c r="K40">
-        <v>-0.0021993874584717</v>
+        <v>0.0134576581212574</v>
       </c>
       <c r="L40">
-        <v>-0.011452107768657</v>
+        <v>-0.0065416989537425</v>
       </c>
       <c r="M40">
-        <v>0.006754280610142</v>
+        <v>0.0356071604860707</v>
       </c>
       <c r="N40">
-        <v>-0.467954778398247</v>
+        <v>1.97906737077314</v>
       </c>
       <c r="O40" t="s">
         <v>44</v>
       </c>
       <c r="P40" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="Q40">
         <v>1800243</v>
@@ -3391,19 +3397,16 @@
         <v>5639420</v>
       </c>
       <c r="S40" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T40" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U40" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V40" t="s">
-        <v>59</v>
-      </c>
-      <c r="W40" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3411,7 +3414,7 @@
         <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -3423,7 +3426,7 @@
         <v>40</v>
       </c>
       <c r="F41">
-        <v>0.5</v>
+        <v>0.95679463351315</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3435,25 +3438,25 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0.68</v>
+        <v>132</v>
       </c>
       <c r="K41">
-        <v>0.0008619751252878</v>
+        <v>3.58118340682531</v>
       </c>
       <c r="L41">
-        <v>-0.0394421369744392</v>
+        <v>0.293863393041567</v>
       </c>
       <c r="M41">
-        <v>0.0356071604860707</v>
+        <v>4.22418056120566</v>
       </c>
       <c r="N41">
-        <v>0.126761047836452</v>
+        <v>2.71301773244342</v>
       </c>
       <c r="O41" t="s">
         <v>44</v>
       </c>
       <c r="P41" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="Q41">
         <v>1800243</v>
@@ -3462,16 +3465,16 @@
         <v>5639420</v>
       </c>
       <c r="S41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T41" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U41" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3479,7 +3482,7 @@
         <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -3491,7 +3494,7 @@
         <v>40</v>
       </c>
       <c r="F42">
-        <v>0.768783636774762</v>
+        <v>0.95679463351315</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -3503,25 +3506,25 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>132</v>
+        <v>7.928</v>
       </c>
       <c r="K42">
-        <v>3.58118340682531</v>
+        <v>0.147335534194768</v>
       </c>
       <c r="L42">
-        <v>-5.34587248128729</v>
+        <v>-0.0216697687257422</v>
       </c>
       <c r="M42">
-        <v>4.22418056120566</v>
+        <v>0.225469892518909</v>
       </c>
       <c r="N42">
-        <v>2.71301773244342</v>
+        <v>1.85841995704803</v>
       </c>
       <c r="O42" t="s">
         <v>44</v>
       </c>
       <c r="P42" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="Q42">
         <v>1800243</v>
@@ -3530,16 +3533,16 @@
         <v>5639420</v>
       </c>
       <c r="S42" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T42" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U42" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V42" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3547,10 +3550,10 @@
         <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C43">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
@@ -3559,7 +3562,7 @@
         <v>40</v>
       </c>
       <c r="F43">
-        <v>0.889664319040077</v>
+        <v>0.8144533152386511</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -3571,25 +3574,25 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>7.9</v>
+        <v>0.677</v>
       </c>
       <c r="K43">
-        <v>0.0756236501280063</v>
+        <v>0.0058189338235294</v>
       </c>
       <c r="L43">
-        <v>-0.162298781723236</v>
+        <v>-0.0030580372181476</v>
       </c>
       <c r="M43">
-        <v>0.206120959660373</v>
+        <v>0.0163322609444077</v>
       </c>
       <c r="N43">
-        <v>0.957261394025397</v>
+        <v>0.859517551481448</v>
       </c>
       <c r="O43" t="s">
         <v>44</v>
       </c>
       <c r="P43" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q43">
         <v>1800243</v>
@@ -3598,16 +3601,16 @@
         <v>5639420</v>
       </c>
       <c r="S43" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T43" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U43" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V43" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3615,7 +3618,7 @@
         <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C44">
         <v>10</v>
@@ -3627,7 +3630,7 @@
         <v>40</v>
       </c>
       <c r="F44">
-        <v>0.894751149972331</v>
+        <v>0.993866969306894</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -3639,19 +3642,19 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>0.6615</v>
+        <v>126.9</v>
       </c>
       <c r="K44">
-        <v>0.0137552118359112</v>
+        <v>2.12778037383178</v>
       </c>
       <c r="L44">
-        <v>-0.0025475417847113</v>
+        <v>1.00810782753129</v>
       </c>
       <c r="M44">
-        <v>0.022807187757955</v>
+        <v>2.76288027360536</v>
       </c>
       <c r="N44">
-        <v>2.07939710293443</v>
+        <v>1.67673788324017</v>
       </c>
       <c r="O44" t="s">
         <v>44</v>
@@ -3666,16 +3669,16 @@
         <v>5639420</v>
       </c>
       <c r="S44" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T44" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U44" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V44" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3683,7 +3686,7 @@
         <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C45">
         <v>10</v>
@@ -3695,7 +3698,7 @@
         <v>40</v>
       </c>
       <c r="F45">
-        <v>0.996354820954232</v>
+        <v>0.999358908129097</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -3707,25 +3710,25 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>124</v>
+        <v>7.611</v>
       </c>
       <c r="K45">
-        <v>1.99634690462912</v>
+        <v>0.281224017127287</v>
       </c>
       <c r="L45">
-        <v>1.00810782753129</v>
+        <v>0.145258063214872</v>
       </c>
       <c r="M45">
-        <v>3.08597428560429</v>
+        <v>0.452916379919444</v>
       </c>
       <c r="N45">
-        <v>1.60995718115251</v>
+        <v>3.69496803478238</v>
       </c>
       <c r="O45" t="s">
         <v>44</v>
       </c>
       <c r="P45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q45">
         <v>1800243</v>
@@ -3734,84 +3737,16 @@
         <v>5639420</v>
       </c>
       <c r="S45" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T45" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U45" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23">
-      <c r="A46" t="s">
-        <v>23</v>
-      </c>
-      <c r="B46" t="s">
-        <v>39</v>
-      </c>
-      <c r="C46">
-        <v>10</v>
-      </c>
-      <c r="D46" t="b">
-        <v>0</v>
-      </c>
-      <c r="E46" t="s">
-        <v>40</v>
-      </c>
-      <c r="F46">
-        <v>0.997896224357254</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>7.246</v>
-      </c>
-      <c r="K46">
-        <v>0.357179125528914</v>
-      </c>
-      <c r="L46">
-        <v>0.152342943065363</v>
-      </c>
-      <c r="M46">
-        <v>0.48737431595291</v>
-      </c>
-      <c r="N46">
-        <v>4.92932825736839</v>
-      </c>
-      <c r="O46" t="s">
-        <v>44</v>
-      </c>
-      <c r="P46" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q46">
-        <v>1800243</v>
-      </c>
-      <c r="R46">
-        <v>5639420</v>
-      </c>
-      <c r="S46" t="s">
-        <v>56</v>
-      </c>
-      <c r="T46" t="s">
-        <v>57</v>
-      </c>
-      <c r="U46" t="s">
-        <v>58</v>
-      </c>
-      <c r="V46" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
